--- a/MainTop/11.10.2024/Таня_печать.xlsx
+++ b/MainTop/11.10.2024/Таня_печать.xlsx
@@ -500,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4290,12 +4290,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J109" s="0" t="n">
-        <f aca="false">SUM(J2:J108)</f>
-        <v>596</v>
-      </c>
-    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/MainTop/11.10.2024/Таня_печать.xlsx
+++ b/MainTop/11.10.2024/Таня_печать.xlsx
@@ -423,12 +423,36 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFD4EA6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EA6B"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -472,13 +496,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -490,6 +530,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -501,7 +601,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N18" activeCellId="0" sqref="N18"/>
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -546,7 +646,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
@@ -581,7 +681,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
@@ -616,7 +716,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
@@ -651,7 +751,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
@@ -686,7 +786,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
@@ -721,7 +821,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
@@ -756,7 +856,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="0" t="n">
@@ -791,7 +891,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="0" t="n">
@@ -826,7 +926,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="0" t="n">
@@ -861,7 +961,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="0" t="n">
@@ -896,7 +996,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="0" t="n">
@@ -931,7 +1031,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
@@ -966,7 +1066,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="0" t="n">
@@ -1001,7 +1101,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="0" t="n">
@@ -1036,7 +1136,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="0" t="n">
@@ -1071,7 +1171,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -1106,7 +1206,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -1141,7 +1241,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -1176,7 +1276,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -1211,7 +1311,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="0" t="n">
@@ -1246,7 +1346,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -1281,7 +1381,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -1316,7 +1416,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -1351,7 +1451,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -1386,7 +1486,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="0" t="n">
@@ -1421,7 +1521,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -1456,7 +1556,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -1491,7 +1591,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -1526,7 +1626,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -1561,7 +1661,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -1596,7 +1696,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -1631,7 +1731,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B33" s="0" t="n">
@@ -1666,7 +1766,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -1701,7 +1801,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -1736,7 +1836,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -1771,7 +1871,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="0" t="n">
@@ -1806,7 +1906,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B38" s="0" t="n">
@@ -1841,7 +1941,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B39" s="0" t="n">
@@ -1876,7 +1976,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B40" s="0" t="n">
@@ -1911,7 +2011,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B41" s="0" t="n">
@@ -1946,7 +2046,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="0" t="n">
@@ -1981,7 +2081,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="0" t="n">
@@ -2016,7 +2116,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="0" t="n">
@@ -2051,7 +2151,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="0" t="n">
@@ -2086,7 +2186,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="0" t="n">
@@ -2121,7 +2221,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="0" t="n">
@@ -2156,7 +2256,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="0" t="n">
@@ -2191,7 +2291,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="0" t="n">
@@ -2226,7 +2326,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B50" s="0" t="n">
@@ -2261,7 +2361,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="0" t="n">
@@ -2296,7 +2396,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="0" t="n">
@@ -2331,7 +2431,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B53" s="0" t="n">
@@ -2366,7 +2466,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B54" s="0" t="n">
@@ -2401,7 +2501,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B55" s="0" t="n">
@@ -2436,7 +2536,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="0" t="n">
@@ -2471,7 +2571,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="0" t="n">
@@ -2506,7 +2606,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="0" t="n">
@@ -2541,7 +2641,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="0" t="n">
@@ -2576,7 +2676,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="0" t="n">
@@ -2611,7 +2711,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="0" t="n">
@@ -2646,7 +2746,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="0" t="n">
@@ -2681,7 +2781,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B63" s="0" t="n">
@@ -2716,7 +2816,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B64" s="0" t="n">
@@ -2751,7 +2851,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B65" s="0" t="n">
@@ -2786,7 +2886,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B66" s="0" t="n">
@@ -2821,7 +2921,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B67" s="0" t="n">
@@ -2856,7 +2956,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="0" t="n">
@@ -2891,7 +2991,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="0" t="n">
@@ -2926,7 +3026,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B70" s="0" t="n">
@@ -2961,7 +3061,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B71" s="0" t="n">
@@ -2996,7 +3096,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B72" s="0" t="n">
@@ -3031,7 +3131,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B73" s="0" t="n">
@@ -3066,7 +3166,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B74" s="0" t="n">
@@ -3101,7 +3201,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="0" t="n">
@@ -3136,7 +3236,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B76" s="0" t="n">
@@ -3171,7 +3271,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -3206,7 +3306,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B78" s="0" t="n">
@@ -3241,7 +3341,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B79" s="0" t="n">
@@ -3276,7 +3376,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B80" s="0" t="n">
@@ -3311,7 +3411,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B81" s="0" t="n">
@@ -3346,7 +3446,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B82" s="0" t="n">
@@ -3381,7 +3481,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="0" t="n">
@@ -3416,7 +3516,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B84" s="0" t="n">
@@ -3451,7 +3551,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B85" s="0" t="n">
@@ -3486,7 +3586,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B86" s="0" t="n">
@@ -3521,7 +3621,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B87" s="0" t="n">
@@ -3556,7 +3656,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B88" s="0" t="n">
@@ -3591,7 +3691,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B89" s="0" t="n">
@@ -3626,7 +3726,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B90" s="0" t="n">
@@ -3661,7 +3761,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B91" s="0" t="n">
@@ -3696,7 +3796,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B92" s="0" t="n">
@@ -3731,7 +3831,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B93" s="0" t="n">
@@ -3766,7 +3866,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B94" s="0" t="n">
@@ -3801,7 +3901,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B95" s="0" t="n">
@@ -3836,7 +3936,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B96" s="0" t="n">
@@ -3871,7 +3971,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B97" s="0" t="n">
@@ -3906,7 +4006,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B98" s="0" t="n">
@@ -3941,7 +4041,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B99" s="0" t="n">
@@ -3976,7 +4076,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B100" s="0" t="n">
@@ -4011,7 +4111,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B101" s="0" t="n">
@@ -4046,7 +4146,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B102" s="0" t="n">
@@ -4081,7 +4181,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B103" s="0" t="n">
@@ -4116,7 +4216,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B104" s="0" t="n">
@@ -4151,7 +4251,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B105" s="0" t="n">
@@ -4186,7 +4286,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B106" s="0" t="n">
@@ -4221,7 +4321,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B107" s="0" t="n">
@@ -4256,7 +4356,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B108" s="0" t="n">
